--- a/FrameWebforExcelマニュアル .xlsx
+++ b/FrameWebforExcelマニュアル .xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyowa_05\Desktop\ささこう\20170613三次元骨組解析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasac\Documents\Visual Studio 2017\Projects\FrameWebforExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="640" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="38" r:id="rId1"/>
@@ -2111,20 +2111,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2253,7 +2253,7 @@
         <xdr:cNvPr id="134490" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA994A6-0DA5-4DBD-BA33-F4965E1CA672}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFA994A6-0DA5-4DBD-BA33-F4965E1CA672}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2332,7 @@
         <xdr:cNvPr id="119757" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4543BA-77AC-4A53-8D87-76ACC021F387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B4543BA-77AC-4A53-8D87-76ACC021F387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2406,7 @@
         <xdr:cNvPr id="3" name="Picture 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F30E11C-25A8-42CC-88F8-543921DD88E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F30E11C-25A8-42CC-88F8-543921DD88E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2490,7 @@
         <xdr:cNvPr id="4" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB8660E-38E4-469F-9EB5-CE13C44C7327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AB8660E-38E4-469F-9EB5-CE13C44C7327}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2574,7 @@
         <xdr:cNvPr id="6" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84397A55-A367-4730-9931-6E04693E5129}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84397A55-A367-4730-9931-6E04693E5129}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2653,7 @@
         <xdr:cNvPr id="141435" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B1E785-1C9B-458B-87CE-6EA2AF804BE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2B1E785-1C9B-458B-87CE-6EA2AF804BE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,6 +2709,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="902804" y="1590261"/>
+          <a:ext cx="2451653" cy="745435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2727,7 +2776,7 @@
         <xdr:cNvPr id="141436" name="図 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4206E94F-6255-481F-91BB-2CA1FA766BDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4206E94F-6255-481F-91BB-2CA1FA766BDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2850,7 @@
         <xdr:cNvPr id="141437" name="図 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4D6B98-152A-43BA-8C93-6CBD1B123057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF4D6B98-152A-43BA-8C93-6CBD1B123057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2875,7 +2924,7 @@
         <xdr:cNvPr id="141438" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE73E4F1-55D9-4E4C-97EF-BE7D4DA6E8E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE73E4F1-55D9-4E4C-97EF-BE7D4DA6E8E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2998,7 @@
         <xdr:cNvPr id="141439" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF233E37-D1D1-4482-B1FB-ECA34FF32E86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF233E37-D1D1-4482-B1FB-ECA34FF32E86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3072,7 @@
         <xdr:cNvPr id="141440" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF7B257-C32A-4A18-A1BA-8BF1CAF0381A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABF7B257-C32A-4A18-A1BA-8BF1CAF0381A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3819,6 +3868,199 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60092</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD53567D-B97E-4723-AE1D-0D4A9E316CBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5693" t="26648" r="78652" b="7433"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1010480" y="1581979"/>
+          <a:ext cx="1608938" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3660913" y="1590261"/>
+          <a:ext cx="2451653" cy="745435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>16567</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>35244</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD53567D-B97E-4723-AE1D-0D4A9E316CBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="5693" t="26648" r="78652" b="7433"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3768589" y="1581979"/>
+          <a:ext cx="1608938" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3842,7 +4084,7 @@
         <xdr:cNvPr id="142389" name="図 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F7543E-EABE-45E8-A87B-DA73B97FFE84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45F7543E-EABE-45E8-A87B-DA73B97FFE84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,7 +4158,7 @@
         <xdr:cNvPr id="142390" name="図 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD53567D-B97E-4723-AE1D-0D4A9E316CBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD53567D-B97E-4723-AE1D-0D4A9E316CBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3990,7 +4232,7 @@
         <xdr:cNvPr id="142391" name="図 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8931CACF-F346-4B55-8A62-DD9416F964A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8931CACF-F346-4B55-8A62-DD9416F964A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,7 +4774,7 @@
         <xdr:cNvPr id="144398" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF041DD-8698-411D-A577-BF6A8270C2FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DF041DD-8698-411D-A577-BF6A8270C2FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4611,7 +4853,7 @@
         <xdr:cNvPr id="42755" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C383CD40-E617-45F8-A02B-9C93115F4A19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C383CD40-E617-45F8-A02B-9C93115F4A19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4690,7 +4932,7 @@
         <xdr:cNvPr id="145419" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521C86AC-B2F0-4A65-A9DE-CFF50888CE2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{521C86AC-B2F0-4A65-A9DE-CFF50888CE2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4769,7 +5011,7 @@
         <xdr:cNvPr id="146444" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56C7866-B37B-4D96-BD53-9E132EBB7F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D56C7866-B37B-4D96-BD53-9E132EBB7F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4848,7 +5090,7 @@
         <xdr:cNvPr id="149514" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524DBF9F-568D-4A2B-A8EB-0994726B51DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{524DBF9F-568D-4A2B-A8EB-0994726B51DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4927,7 +5169,7 @@
         <xdr:cNvPr id="121923" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384ED738-A595-4EF0-AE92-B635E40FDA75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{384ED738-A595-4EF0-AE92-B635E40FDA75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5138,7 +5380,7 @@
         <xdr:cNvPr id="150538" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCFCA146-177C-4085-B5AA-CA17EB05E724}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCFCA146-177C-4085-B5AA-CA17EB05E724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5217,7 +5459,7 @@
         <xdr:cNvPr id="151562" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF11628-6604-4159-BBCE-FD1134FE0D80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBF11628-6604-4159-BBCE-FD1134FE0D80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5296,7 +5538,7 @@
         <xdr:cNvPr id="112333" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A74A0E-0062-41FC-B927-234D0E1AD554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44A74A0E-0062-41FC-B927-234D0E1AD554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5370,7 +5612,7 @@
         <xdr:cNvPr id="112334" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14ADCC47-863E-4765-9B8B-2B710DC26347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14ADCC47-863E-4765-9B8B-2B710DC26347}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5449,7 +5691,7 @@
         <xdr:cNvPr id="135289" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39673DDA-ADCB-4E5C-976D-8D72F407412E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39673DDA-ADCB-4E5C-976D-8D72F407412E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5533,7 +5775,7 @@
         <xdr:cNvPr id="135290" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89FC0AE-5689-431A-9E4A-71DBB728913B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D89FC0AE-5689-431A-9E4A-71DBB728913B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5617,7 +5859,7 @@
         <xdr:cNvPr id="135291" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05A94FC-FFC1-4BF3-B5FD-F065C748C58F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E05A94FC-FFC1-4BF3-B5FD-F065C748C58F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5701,7 +5943,7 @@
         <xdr:cNvPr id="135292" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4093E8-20BC-4C0E-8A31-B7D43AE4532B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B4093E8-20BC-4C0E-8A31-B7D43AE4532B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5785,7 +6027,7 @@
         <xdr:cNvPr id="135293" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E42CC0-6EEB-4528-AE4D-3BC06E3EA4E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90E42CC0-6EEB-4528-AE4D-3BC06E3EA4E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5859,7 +6101,7 @@
         <xdr:cNvPr id="135294" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8109DB61-9355-4B0F-81F3-C4C8134FB6B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8109DB61-9355-4B0F-81F3-C4C8134FB6B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5938,7 +6180,7 @@
         <xdr:cNvPr id="136213" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4944440F-597C-4AD9-A95E-D3A0CDB01A74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4944440F-597C-4AD9-A95E-D3A0CDB01A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6017,7 +6259,7 @@
         <xdr:cNvPr id="137237" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958E2900-5F2A-4015-BB14-42D3F560D1DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{958E2900-5F2A-4015-BB14-42D3F560D1DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6096,7 +6338,7 @@
         <xdr:cNvPr id="138341" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5F977E-4C04-4BDE-849E-B8D2C22ADAB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C5F977E-4C04-4BDE-849E-B8D2C22ADAB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6180,7 +6422,7 @@
         <xdr:cNvPr id="138342" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A626F1-9584-4913-AA13-285EBE7E6266}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9A626F1-9584-4913-AA13-285EBE7E6266}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6264,7 +6506,7 @@
         <xdr:cNvPr id="138343" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9E661A-5732-47E7-AC8E-31EDAA930665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E9E661A-5732-47E7-AC8E-31EDAA930665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6348,7 +6590,7 @@
         <xdr:cNvPr id="138344" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3BB315-398C-47AE-BEED-33A42F3B26FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B3BB315-398C-47AE-BEED-33A42F3B26FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6432,7 +6674,7 @@
         <xdr:cNvPr id="138345" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F85F56-9ED0-4B5F-B12C-1F5BDF4453F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71F85F56-9ED0-4B5F-B12C-1F5BDF4453F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6511,7 +6753,7 @@
         <xdr:cNvPr id="152715" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EB793E-84C3-4E22-94CA-3AD301185551}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3EB793E-84C3-4E22-94CA-3AD301185551}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6585,7 +6827,7 @@
         <xdr:cNvPr id="152716" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC64C9A-D733-4396-8E0E-D21A983C88C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEC64C9A-D733-4396-8E0E-D21A983C88C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6606,7 +6848,7 @@
           <xdr:cNvPr id="152717" name="Line 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFCFD06-2770-4F23-983E-08E1A76CFA27}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CFCFD06-2770-4F23-983E-08E1A76CFA27}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6655,7 +6897,7 @@
           <xdr:cNvPr id="152718" name="Line 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFF99DC-FD1E-4B8E-9E3F-15A8478A5069}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DFF99DC-FD1E-4B8E-9E3F-15A8478A5069}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6704,7 +6946,7 @@
           <xdr:cNvPr id="152719" name="Line 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB19667-09D2-4B66-8B1C-DB24A9E45B62}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAB19667-09D2-4B66-8B1C-DB24A9E45B62}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6753,7 +6995,7 @@
           <xdr:cNvPr id="152720" name="Line 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FD7CA2-F524-409B-914C-AE5E121CA58F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47FD7CA2-F524-409B-914C-AE5E121CA58F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6802,7 +7044,7 @@
           <xdr:cNvPr id="152721" name="Line 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86947A5B-BC24-4EAA-8654-8ED7F09D9BAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86947A5B-BC24-4EAA-8654-8ED7F09D9BAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6851,7 +7093,7 @@
           <xdr:cNvPr id="152722" name="Line 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8FEA0E-5648-4D0D-8E39-B2C18418C73C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF8FEA0E-5648-4D0D-8E39-B2C18418C73C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6900,7 +7142,7 @@
           <xdr:cNvPr id="152723" name="Line 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C3B162-BD0A-4D07-ABFE-C9AEBB072868}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61C3B162-BD0A-4D07-ABFE-C9AEBB072868}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6949,7 +7191,7 @@
           <xdr:cNvPr id="152724" name="Line 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE82D65-4F10-4F28-B85A-8C02735902F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6FE82D65-4F10-4F28-B85A-8C02735902F1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6998,7 +7240,7 @@
           <xdr:cNvPr id="152725" name="Line 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B214B4-6865-4480-82AC-7CE0960D6076}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8B214B4-6865-4480-82AC-7CE0960D6076}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7047,7 +7289,7 @@
           <xdr:cNvPr id="152726" name="Line 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49225B3C-AD34-4622-BA9E-3A01B6CD535F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49225B3C-AD34-4622-BA9E-3A01B6CD535F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7096,7 +7338,7 @@
           <xdr:cNvPr id="152727" name="Line 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770CE62E-9939-4B5B-BDE5-D4EC85E3E0CD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{770CE62E-9939-4B5B-BDE5-D4EC85E3E0CD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7145,7 +7387,7 @@
           <xdr:cNvPr id="152728" name="Line 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B4C717-E189-46E7-934F-C8EFD414C701}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4B4C717-E189-46E7-934F-C8EFD414C701}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7194,7 +7436,7 @@
           <xdr:cNvPr id="152729" name="Line 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2120B6-C213-4A5E-A350-17F8090504E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC2120B6-C213-4A5E-A350-17F8090504E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7243,7 +7485,7 @@
           <xdr:cNvPr id="152730" name="Line 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7E2DBA-EF1E-4E10-9D93-4397133DE820}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C7E2DBA-EF1E-4E10-9D93-4397133DE820}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7313,7 +7555,7 @@
         <xdr:cNvPr id="128144" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E773D3B-3412-4A43-BFF7-C3EABA5338EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E773D3B-3412-4A43-BFF7-C3EABA5338EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8045,7 +8287,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A2:AA56"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A45" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="AX12" sqref="AX12"/>
     </sheetView>
   </sheetViews>
@@ -8289,8 +8531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AE55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="AX12" sqref="AX12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -8938,7 +9180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AE39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AC42" sqref="AC42"/>
     </sheetView>
   </sheetViews>
@@ -56273,313 +56515,344 @@
       </c>
     </row>
     <row r="30" spans="5:29" x14ac:dyDescent="0.4">
-      <c r="M30" s="68" t="s">
+      <c r="M30" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="68"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="64"/>
     </row>
     <row r="32" spans="5:29" x14ac:dyDescent="0.4">
       <c r="M32" s="21"/>
-      <c r="N32" s="64" t="s">
+      <c r="N32" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64" t="s">
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64" t="s">
+      <c r="R32" s="65"/>
+      <c r="S32" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64" t="s">
+      <c r="T32" s="65"/>
+      <c r="U32" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64" t="s">
+      <c r="V32" s="65"/>
+      <c r="W32" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="64"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
     </row>
     <row r="33" spans="2:29" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
       <c r="L33" s="10"/>
       <c r="M33" s="22">
         <v>1</v>
       </c>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64">
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65">
         <v>1</v>
       </c>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64">
+      <c r="R33" s="65"/>
+      <c r="S33" s="65">
         <v>1</v>
       </c>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64">
+      <c r="T33" s="65"/>
+      <c r="U33" s="65">
         <v>1</v>
       </c>
-      <c r="V33" s="64"/>
-      <c r="W33" s="67" t="s">
+      <c r="V33" s="65"/>
+      <c r="W33" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="67"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
     </row>
     <row r="34" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
       <c r="L34" s="10"/>
       <c r="M34" s="22">
         <v>2</v>
       </c>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64">
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65">
         <v>1</v>
       </c>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64">
+      <c r="R34" s="65"/>
+      <c r="S34" s="65">
         <v>1</v>
       </c>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64">
+      <c r="T34" s="65"/>
+      <c r="U34" s="65">
         <v>0</v>
       </c>
-      <c r="V34" s="64"/>
-      <c r="W34" s="67" t="s">
+      <c r="V34" s="65"/>
+      <c r="W34" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="67"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
     </row>
     <row r="35" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="M35" s="22">
         <v>3</v>
       </c>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64">
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65">
         <v>0</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64">
+      <c r="R35" s="65"/>
+      <c r="S35" s="65">
         <v>1</v>
       </c>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64">
+      <c r="T35" s="65"/>
+      <c r="U35" s="65">
         <v>0</v>
       </c>
-      <c r="V35" s="64"/>
-      <c r="W35" s="66" t="s">
+      <c r="V35" s="65"/>
+      <c r="W35" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
     </row>
     <row r="36" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="M36" s="22">
         <v>4</v>
       </c>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64">
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65">
         <v>1</v>
       </c>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64">
+      <c r="R36" s="65"/>
+      <c r="S36" s="65">
         <v>0</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64">
+      <c r="T36" s="65"/>
+      <c r="U36" s="65">
         <v>0</v>
       </c>
-      <c r="V36" s="64"/>
-      <c r="W36" s="66" t="s">
+      <c r="V36" s="65"/>
+      <c r="W36" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
     </row>
     <row r="37" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="M37" s="22">
         <v>5</v>
       </c>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64">
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65">
         <v>0</v>
       </c>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64">
+      <c r="R37" s="65"/>
+      <c r="S37" s="65">
         <v>0</v>
       </c>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64">
+      <c r="T37" s="65"/>
+      <c r="U37" s="65">
         <v>1</v>
       </c>
-      <c r="V37" s="64"/>
-      <c r="W37" s="67" t="s">
+      <c r="V37" s="65"/>
+      <c r="W37" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="67"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="67"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="66"/>
     </row>
     <row r="38" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="M38" s="22">
         <v>6</v>
       </c>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64">
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65">
         <v>0</v>
       </c>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64">
+      <c r="R38" s="65"/>
+      <c r="S38" s="65">
         <v>1</v>
       </c>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64">
+      <c r="T38" s="65"/>
+      <c r="U38" s="65">
         <v>1</v>
       </c>
-      <c r="V38" s="64"/>
-      <c r="W38" s="67" t="s">
+      <c r="V38" s="65"/>
+      <c r="W38" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="67"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
     </row>
     <row r="39" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="M39" s="22">
         <v>7</v>
       </c>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64">
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65">
         <v>1</v>
       </c>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64">
+      <c r="R39" s="65"/>
+      <c r="S39" s="65">
         <v>0</v>
       </c>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64">
+      <c r="T39" s="65"/>
+      <c r="U39" s="65">
         <v>1</v>
       </c>
-      <c r="V39" s="64"/>
-      <c r="W39" s="67" t="s">
+      <c r="V39" s="65"/>
+      <c r="W39" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
     </row>
     <row r="40" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="M40" s="22">
         <v>8</v>
       </c>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64">
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65">
         <v>0</v>
       </c>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64">
+      <c r="R40" s="65"/>
+      <c r="S40" s="65">
         <v>0</v>
       </c>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64">
+      <c r="T40" s="65"/>
+      <c r="U40" s="65">
         <v>0</v>
       </c>
-      <c r="V40" s="64"/>
-      <c r="W40" s="67" t="s">
+      <c r="V40" s="65"/>
+      <c r="W40" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B33:K34"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="W35:AC35"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:AC32"/>
+    <mergeCell ref="W34:AC34"/>
+    <mergeCell ref="W33:AC33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W36:AC36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:AC37"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
     <mergeCell ref="M30:AC30"/>
     <mergeCell ref="N40:P40"/>
     <mergeCell ref="Q40:R40"/>
@@ -56596,37 +56869,6 @@
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="U39:V39"/>
     <mergeCell ref="W39:AC39"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W36:AC36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:AC37"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="W35:AC35"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:AC32"/>
-    <mergeCell ref="W34:AC34"/>
-    <mergeCell ref="W33:AC33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="B33:K34"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.62" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.19685039370078741"/>
@@ -56692,7 +56934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AF34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
@@ -57352,51 +57594,51 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:AB28"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:AB30"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:AB26"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:AB32"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:AB25"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:AB33"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:AB27"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:AB31"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="Q29:R29"/>
     <mergeCell ref="S29:AB29"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:AB31"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:AB27"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:AB33"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:AB25"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:AB32"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:AB26"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:AB30"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:AB28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.62" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.19685039370078741"/>
@@ -57432,36 +57674,36 @@
       </c>
     </row>
     <row r="17" spans="12:23" x14ac:dyDescent="0.4">
-      <c r="O17" s="68" t="s">
+      <c r="O17" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
     </row>
     <row r="18" spans="12:23" x14ac:dyDescent="0.4">
       <c r="T18" s="79"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
     </row>
     <row r="19" spans="12:23" x14ac:dyDescent="0.4">
-      <c r="N19" s="68" t="s">
+      <c r="N19" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
     </row>
     <row r="21" spans="12:23" x14ac:dyDescent="0.4">
-      <c r="M21" s="68" t="s">
+      <c r="M21" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
     </row>
     <row r="26" spans="12:23" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="L26" s="68" t="s">
+      <c r="L26" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="M26" s="68"/>
+      <c r="M26" s="64"/>
       <c r="O26" s="80" t="s">
         <v>30</v>
       </c>
@@ -57474,10 +57716,10 @@
         <v>32</v>
       </c>
       <c r="T26" s="80"/>
-      <c r="V26" s="68" t="s">
+      <c r="V26" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="W26" s="68"/>
+      <c r="W26" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="9">
